--- a/Capstone_Project_Progress.xlsx
+++ b/Capstone_Project_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/125bb00aa71b3511/Desktop/AI_Module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{3D935841-0754-42B5-82C0-33BD9EC0B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EBF3DC-EAC2-4F89-A4DF-EB0B82F03997}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{3D935841-0754-42B5-82C0-33BD9EC0B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D850ACA-4521-416A-AC42-A11281B74317}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{21C0B760-C1B8-4F01-9F11-A212ABC014F5}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{21C0B760-C1B8-4F01-9F11-A212ABC014F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Objective</t>
   </si>
@@ -247,6 +247,24 @@
   </si>
   <si>
     <t>Handle file-writing errors.</t>
+  </si>
+  <si>
+    <t>For adding tranactions:</t>
+  </si>
+  <si>
+    <t>Prompt for date, customer_id, amount, type, description</t>
+  </si>
+  <si>
+    <t>Validate date, amount, type</t>
+  </si>
+  <si>
+    <t>Generate new transaction_id</t>
+  </si>
+  <si>
+    <t>Create dictionary and append</t>
+  </si>
+  <si>
+    <t>For viewing transactions:</t>
   </si>
 </sst>
 </file>
@@ -314,10 +332,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEBE290-4ADB-4052-BB15-82794CE7DB69}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +724,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -774,19 +791,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F218371-E183-47E3-9414-4561587E1BBF}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,68 +811,92 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
